--- a/testCases/MDH_Busqueda.xlsx
+++ b/testCases/MDH_Busqueda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjtk951\Documents\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B18632-A352-4394-89AD-7F5A7DE0C78B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E0CBB1-8C21-4D1E-BD3C-2061C4E09D75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t xml:space="preserve">Buscar un producto </t>
+  </si>
+  <si>
+    <t>Verificar criterio de busqueda en el primer elemento de la lista de la pagina de resultados</t>
+  </si>
+  <si>
+    <t>Navegar a pagina de resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre
+Descripcion
+Precio
+</t>
+  </si>
+  <si>
+    <t>Búsqueda de Articulo</t>
   </si>
   <si>
     <r>
@@ -83,11 +98,9 @@
       </rPr>
       <t xml:space="preserve">
 logoMdh; css="div.header.noMovible div.logo &gt; a &gt; img"
-campoBusqueda; css="div.header.noMovible [name='q']"</t>
+campoBusqueda; css="div.header.noMovible [name='q']"
+botonBusqueda; css="div.header.noMovible div.busqueda button"</t>
     </r>
-  </si>
-  <si>
-    <t>Pagina con productos es desplegada y el criterio de busqueda aparece al inicio de la pagina</t>
   </si>
   <si>
     <r>
@@ -98,7 +111,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ResultadoBusqueda:</t>
+      <t>ResultsPage:</t>
     </r>
     <r>
       <rPr>
@@ -110,27 +123,10 @@
       <t xml:space="preserve">
 logoMDH; css="div.header.noMovible div.logo &gt; a &gt; img"
 categoriaBusqueda; css="div.desktopMaster div.bannerInicio &gt; span"
-listaDeArticulos; css="div.desktopMaster div.busquedaContainer.menuVisible"
+listaProductos; css="[class*=resultado]"
+linkPrimerArticulo; css="div.desktopMaster a[href='producto/1209'] &gt; div"
 </t>
     </r>
-  </si>
-  <si>
-    <t>Validar criterio de busqueda en el detalle del producto</t>
-  </si>
-  <si>
-    <t>Verificar criterio de busqueda en el primer elemento de la lista de la pagina de resultados</t>
-  </si>
-  <si>
-    <t>Navegar a pagina de resultados</t>
-  </si>
-  <si>
-    <t>Click en el primer elemento y navegar a pagina de producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre
-Descripcion
-Precio
-</t>
   </si>
   <si>
     <r>
@@ -141,7 +137,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ResultadoDeBusqueda:
+      <t xml:space="preserve">ProductPage:
 </t>
     </r>
     <r>
@@ -151,39 +147,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">nombreArticulo; css:"div.desktopMaster div.busquedaContainer.menuVisible &gt; a:nth-child(1) h3"
-descripcionArticulo; css:"div.desktopMaster div.busquedaContainer.menuVisible &gt; a:nth-child(1) div.derecha&gt; p"
-precioArticulo; css:"div.desktopMaster div.busquedaContainer.menuVisible &gt; a:nth-child(1) div.izquierda &gt; p.precio"
+      <t xml:space="preserve">nombrePrimerArticulo; css:"div.desktopMaster a[href='producto/1209'] &gt; div &gt; div.izquierda &gt; h3"
+descripcionPrimerArticulo; css:"div.desktopMaster a[href='producto/1209'] &gt; div &gt; div.derecha &gt; p"
+precioPrimerArticulo; css:"div.desktopMaster a[href='producto/1209'] &gt; div &gt; div.izquierda &gt; p.precio"
 </t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PaginaDeArticulo:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombreArticulo; css:"div.commonContainer.menuVisible h1"
-descripcionArticulo; css:"div.commonContainer.menuVisible &gt; div.descripcion &gt; div:nth-child(2)"
-precioArticulo;  css:"div.commonContainer &gt; div.colContainer div.precio"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Búsqueda de Articulo</t>
+    <t>Pagina de resultado con productos es desplegada y el criterio de busqueda aparece al inicio de la pagina</t>
   </si>
 </sst>
 </file>
@@ -608,7 +579,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -639,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -662,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -676,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -687,52 +658,44 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -741,7 +704,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -750,7 +713,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -759,7 +722,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
